--- a/me/1.es6/2.Variable-TemplateString-Spread-Destructing.xlsx
+++ b/me/1.es6/2.Variable-TemplateString-Spread-Destructing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\1.es6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5843FDE1-BEF9-42D1-8F62-E1E9C2A031B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197DD4AB-DC44-495C-B0D8-4EDB3DDDBDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Let vs var" sheetId="1" r:id="rId1"/>
+    <sheet name="Const" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="197">
   <si>
     <t>構成</t>
   </si>
@@ -782,6 +783,33 @@
   </si>
   <si>
     <t>Thay let bằng var</t>
+  </si>
+  <si>
+    <t>02-const.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="mjs/02-const.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Dùng const để định nghĩa các hằng số cố định. Không thay đổi giá trị của nó được</t>
+  </si>
+  <si>
+    <t>typescript\1.es6\mjs\02-const.js</t>
+  </si>
+  <si>
+    <t>const COURSE_NAME = "Typescript";</t>
+  </si>
+  <si>
+    <t>console.log(COURSE_NAME);</t>
+  </si>
+  <si>
+    <t>COURSE_NAME="PHP";</t>
+  </si>
+  <si>
+    <t>Không thay đổi được giá trị của hằng số</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1022,6 +1050,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2982,6 +3018,258 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAD5342-6E6B-AF0A-DA15-FD1D6EC8E337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2171700" y="2819400"/>
+          <a:ext cx="400050" cy="26241375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504232</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>56950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E91014-80CC-02BB-1C7F-5E8F5A818A45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4905375" y="30079950"/>
+          <a:ext cx="4742857" cy="1600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD29AE19-7789-3825-7F16-77F2BBB41A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="30613350"/>
+          <a:ext cx="2933700" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542332</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>18815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6456810-E932-AB7F-3B52-1996C9E90157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943475" y="32242125"/>
+          <a:ext cx="4742857" cy="1876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DC398D-0623-B1B0-2B98-D5BFC7591FEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="32689800"/>
+          <a:ext cx="2828925" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3247,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AH548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="I509" sqref="I509"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12280,4 +12568,2517 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6011CBD2-46AA-4094-AC17-66A172EE0B01}">
+  <dimension ref="A2:N172"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="5"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="5"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="5"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="5"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="5"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="5"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="5"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="5"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="5"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="5"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="5"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="5"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="5"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="5"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="5"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="5"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="5"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="5"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="5"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="5"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="5"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="5"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="5"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="5"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="5"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="5"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="5"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="5"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="5"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="5"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="5"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="5"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="5"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="5"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="5"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="5"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="5"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="5"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="5"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="5"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="5"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="5"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="8"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="8"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>192</v>
+      </c>
+      <c r="I169" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.es6/2.Variable-TemplateString-Spread-Destructing.xlsx
+++ b/me/1.es6/2.Variable-TemplateString-Spread-Destructing.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\1.es6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197DD4AB-DC44-495C-B0D8-4EDB3DDDBDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E76222-58A1-489D-8246-32C1FF785615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Let vs var" sheetId="1" r:id="rId1"/>
     <sheet name="Const" sheetId="2" r:id="rId2"/>
+    <sheet name="Template String" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="228">
   <si>
     <t>構成</t>
   </si>
@@ -810,6 +811,111 @@
   </si>
   <si>
     <t>Không thay đổi được giá trị của hằng số</t>
+  </si>
+  <si>
+    <t>03-template-string.js</t>
+  </si>
+  <si>
+    <t>Khi cần xuất ra các chuỗi mà trong chuỗi có sự lồng ghép của nhiều biến thì dùng đến Template String</t>
+  </si>
+  <si>
+    <t>        &lt;script src="mjs/03-template-string.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\1.es6\mjs\03-template-string.js</t>
+  </si>
+  <si>
+    <t>let elm = document.getElementById("mContent");</t>
+  </si>
+  <si>
+    <t>elm.style.color = "#0174DF";</t>
+  </si>
+  <si>
+    <t>/* ==================== EXAMPLE 01 ==================== */</t>
+  </si>
+  <si>
+    <t>let name    = "Typescript";</t>
+  </si>
+  <si>
+    <t>let price   = 25;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elm.innerHTML   = `&lt;div&gt;Course name: &lt;b&gt;${name}&lt;/b&gt;, </t>
+  </si>
+  <si>
+    <t>                        price: &lt;b style="color: red"&gt;${price} USD&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/div&gt;`;</t>
+  </si>
+  <si>
+    <t>let name    = "Typescript 123";</t>
+  </si>
+  <si>
+    <t>/* ==================== EXAMPLE 02 ==================== */</t>
+  </si>
+  <si>
+    <t>let todo = {</t>
+  </si>
+  <si>
+    <t>    id: 169,</t>
+  </si>
+  <si>
+    <t>    name: "Play football",</t>
+  </si>
+  <si>
+    <t>    status: false</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>elm.innerHTML   = `&lt;div id="todo-id-${todo.id}"&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;i class="${ todo.status == true ? "hidden" : ""} glyphicon glyphicon-ok"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;span class="name"&gt;${todo.name}&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>status có giá trị là false có nghĩa là chưa hoàn thành nên sẽ cho hiển thị icon glyphicon-ok</t>
+  </si>
+  <si>
+    <t>Trường hợp status có giá trị là true thì có nghĩa là đã hoàn thành nên ko cần hiển thị icon glyphicon-ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status=false nên ko có class </t>
+  </si>
+  <si>
+    <t>hidden xuất hiện-&gt;icon được</t>
+  </si>
+  <si>
+    <t>hiển thị</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    status: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <t>status có giá trị là true thì có nghĩa là đã hoàn thành nên ko cần hiển thị icon glyphicon-ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status=true nên có class </t>
+  </si>
+  <si>
+    <t>hidden xuất hiện-&gt;icon ko được</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1058,6 +1164,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3270,6 +3378,832 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A81C88-118B-B76B-705D-2F10EE0FC672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2286000" y="3009900"/>
+          <a:ext cx="514350" cy="26231850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>112679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C1F064-8A49-10FA-0F02-9F1B301D67D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534026" y="30318076"/>
+          <a:ext cx="7086599" cy="1036603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC876CD-0940-AEBA-B910-184FD3F6E9ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3600450" y="31184850"/>
+          <a:ext cx="2733675" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ADDB6B-196B-D63F-46AB-BD99F343A431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3400425" y="31184850"/>
+          <a:ext cx="3657600" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>136144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40D984-0590-45D5-1289-BA6A2654DCD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753226" y="36785550"/>
+          <a:ext cx="9105900" cy="2974594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7407054B-4ABD-A951-9B9D-6750B567EE4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="36918900"/>
+          <a:ext cx="4838700" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B3B397-9A4E-0F32-3F2F-C8B0E7478F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="37128450"/>
+          <a:ext cx="4410075" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D0A1A9-37A1-E5D4-C2F0-D9A48AA6CA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="37309425"/>
+          <a:ext cx="4714875" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7884C8-79E2-BD87-D0DB-6A1AA0EEA513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6572250" y="37680900"/>
+          <a:ext cx="1047750" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>48241</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9104670" cy="2974594"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3379919C-CF02-44C5-A2AE-81038324265C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753841" y="44215050"/>
+          <a:ext cx="9104670" cy="2974594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F1927B-038F-4D8B-A36B-C148B330BF87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="44348400"/>
+          <a:ext cx="4933950" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D35179-5130-45C0-997C-2A5526665CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="44557950"/>
+          <a:ext cx="4524375" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7BACA3-2050-405E-94C4-B06A7A3645F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="37309425"/>
+          <a:ext cx="4714875" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30532064-8F65-16C9-6455-06563E8C5C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="36347400"/>
+          <a:ext cx="3429000" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CCC267-0DF3-71B4-05B2-126D9024C01F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="43767375"/>
+          <a:ext cx="3467100" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168A4891-9B98-00C8-C49C-F30F34BED1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7629525" y="37671375"/>
+          <a:ext cx="85725" cy="7429500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3535,7 +4469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AH548"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
+    <sheetView topLeftCell="A385" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -12574,8 +13508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6011CBD2-46AA-4094-AC17-66A172EE0B01}">
   <dimension ref="A2:N172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15081,4 +16015,3266 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B0614C-2F88-4525-99CA-48630D913201}">
+  <dimension ref="A2:N245"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="F241" sqref="F241"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="5"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="5"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="5"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="5"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="5"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="5"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="5"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="5"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="5"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="5"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="5"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="5"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="5"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="5"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="5"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="5"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="5"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="5"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="5"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="5"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="5"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="5"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="5"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="5"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="5"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="5"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="5"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="5"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="5"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="5"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="5"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="5"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="5"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="5"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="5"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="5"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="5"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="5"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="5"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="5"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="5"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="5"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="5"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="8"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="4"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="8"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="3"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="4"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="5"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="4"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="5"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="5"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="5"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="5"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="5"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="4"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="5"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="5"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="5"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="5"/>
+      <c r="K191" t="s">
+        <v>99</v>
+      </c>
+      <c r="L191" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="5"/>
+      <c r="L192" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B193" s="10"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="5"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B194" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="5"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B195" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="5"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B196" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="5"/>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B197" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="8"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I204" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J204" s="2"/>
+      <c r="K204" s="3"/>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I205" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J205" s="9"/>
+      <c r="K205" s="5"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I206" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J206" s="7"/>
+      <c r="K206" s="8"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="3"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="5"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="4"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="5"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="5"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B217" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="5"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="5"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C219" s="9"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="9"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="5"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B220" s="4"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
+      <c r="I220" s="9"/>
+      <c r="J220" s="5"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="5"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="5"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C223" s="9"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="9"/>
+      <c r="I223" s="9"/>
+      <c r="J223" s="5"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C224" s="9"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="5"/>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B225" s="4"/>
+      <c r="C225" s="9"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
+      <c r="I225" s="9"/>
+      <c r="J225" s="5"/>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B226" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C226" s="9"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="5"/>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B227" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="9"/>
+      <c r="J227" s="5"/>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B228" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C228" s="9"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="5"/>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B229" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="9"/>
+      <c r="I229" s="9"/>
+      <c r="J229" s="5"/>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B230" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="5"/>
+      <c r="K230" t="s">
+        <v>99</v>
+      </c>
+      <c r="L230" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B231" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
+      <c r="I231" s="9"/>
+      <c r="J231" s="5"/>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B232" s="28"/>
+      <c r="C232" s="9"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
+      <c r="I232" s="9"/>
+      <c r="J232" s="5"/>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B233" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="5"/>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B234" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C234" s="9"/>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
+      <c r="I234" s="9"/>
+      <c r="J234" s="5"/>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B235" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C235" s="9"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="9"/>
+      <c r="I235" s="9"/>
+      <c r="J235" s="5"/>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B236" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="7"/>
+      <c r="J236" s="8"/>
+    </row>
+    <row r="243" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I243" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J243" s="2"/>
+      <c r="K243" s="3"/>
+    </row>
+    <row r="244" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I244" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J244" s="9"/>
+      <c r="K244" s="5"/>
+    </row>
+    <row r="245" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I245" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J245" s="7"/>
+      <c r="K245" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.es6/2.Variable-TemplateString-Spread-Destructing.xlsx
+++ b/me/1.es6/2.Variable-TemplateString-Spread-Destructing.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\1.es6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E76222-58A1-489D-8246-32C1FF785615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F70D24-7117-4CDC-9DAA-33221C1FB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Let vs var" sheetId="1" r:id="rId1"/>
     <sheet name="Const" sheetId="2" r:id="rId2"/>
     <sheet name="Template String" sheetId="3" r:id="rId3"/>
+    <sheet name="For" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="257">
   <si>
     <t>構成</t>
   </si>
@@ -916,6 +917,105 @@
   </si>
   <si>
     <t>hidden xuất hiện-&gt;icon ko được</t>
+  </si>
+  <si>
+    <t>04-for.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="mjs/04-for.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\1.es6\mjs\04-for.js</t>
+  </si>
+  <si>
+    <t>let todoArr = [</t>
+  </si>
+  <si>
+    <t>    "Play football",</t>
+  </si>
+  <si>
+    <t>    "Coding",</t>
+  </si>
+  <si>
+    <t>    "Study Typescript"</t>
+  </si>
+  <si>
+    <t>];</t>
+  </si>
+  <si>
+    <t>/* ==================== CASE 01 ==================== */</t>
+  </si>
+  <si>
+    <t>let length  = todoArr.length;</t>
+  </si>
+  <si>
+    <t>for(let i = 0; i &lt; length; i++){</t>
+  </si>
+  <si>
+    <t>    console.log(todoArr[i]);</t>
+  </si>
+  <si>
+    <t>Đây là cách viết thường hay được</t>
+  </si>
+  <si>
+    <t>sử dụng</t>
+  </si>
+  <si>
+    <t>/* ==================== CASE 02 ==================== */</t>
+  </si>
+  <si>
+    <t>for (let index in todoArr) {</t>
+  </si>
+  <si>
+    <t>    console.log(index + ": " + todoArr[index]);</t>
+  </si>
+  <si>
+    <t>for … in</t>
+  </si>
+  <si>
+    <t>/* ==================== CASE 03 ==================== */</t>
+  </si>
+  <si>
+    <t>for (let todo of todoArr) {</t>
+  </si>
+  <si>
+    <t>    console.log(todo);</t>
+  </si>
+  <si>
+    <t>for … of</t>
+  </si>
+  <si>
+    <t>/* ==================== CASE 04 ==================== */</t>
+  </si>
+  <si>
+    <t>let todoObj = {</t>
+  </si>
+  <si>
+    <t>for (let index in todoObj) {</t>
+  </si>
+  <si>
+    <t>    console.log(index + ": " + todoObj[index]);</t>
+  </si>
+  <si>
+    <t>Thao tác for đối với đối tượng</t>
+  </si>
+  <si>
+    <t>todoObj[index]: Truy cập giống như là truy cập mảng mà ko truy cập được kiểu todoObj.index</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thao tác với đối tượng thì phải dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for...in</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1130,7 +1230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1166,6 +1266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4204,6 +4305,611 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B34E026-6420-9AF0-4067-DD241777D3DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1981200" y="3019425"/>
+          <a:ext cx="742950" cy="26184225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523277</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>190195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6F3FAB-69CB-FD29-58B2-A7AB2FADF46F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="30137100"/>
+          <a:ext cx="4780952" cy="2438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379206BB-670F-F65D-2629-A1FACAAB951C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="30594300"/>
+          <a:ext cx="6067425" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61E5081-7D1F-92E3-CE59-0EF1179A7AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="30794325"/>
+          <a:ext cx="6381750" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3703B2E7-1D78-A10E-2485-78D332B40757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="31022925"/>
+          <a:ext cx="5924550" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8923</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>180721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D558C8BF-549E-A942-F28C-951CA1976DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="34728150"/>
+          <a:ext cx="4819048" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846479DB-AAB1-340A-3648-B65F655C0A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1390650" y="35509200"/>
+          <a:ext cx="5762625" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB7DCA6-DA48-3DFD-8787-EF721053C733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3124200" y="36052125"/>
+          <a:ext cx="4257675" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>113701</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>161676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57CD5FE2-BEDF-5976-A88E-3F4612BB1F5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="40271700"/>
+          <a:ext cx="4790476" cy="1990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88B0562-0073-5033-5BF2-3F90F169413D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1323975" y="41281350"/>
+          <a:ext cx="5895975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85129</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>171198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5CC1738-2D3E-E218-E6C2-059A88765C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="47491650"/>
+          <a:ext cx="4771429" cy="2019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8DF55F-E3EF-165B-C04A-4714811C1EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2190750" y="48596550"/>
+          <a:ext cx="5648325" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13508,8 +14214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6011CBD2-46AA-4094-AC17-66A172EE0B01}">
   <dimension ref="A2:N172"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16021,8 +16727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B0614C-2F88-4525-99CA-48630D913201}">
   <dimension ref="A2:N245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="F241" sqref="F241"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16030,12 +16736,12 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -16045,7 +16751,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="25" t="s">
         <v>1</v>
@@ -16056,7 +16762,7 @@
       <c r="F6" s="26"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="28"/>
       <c r="C7" s="33" t="s">
@@ -16067,7 +16773,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="28"/>
       <c r="C8" s="33"/>
@@ -16078,7 +16784,7 @@
       <c r="F8" s="33"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="28"/>
       <c r="C9" s="33"/>
@@ -16089,7 +16795,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="28"/>
       <c r="C10" s="33"/>
@@ -16100,7 +16806,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="28"/>
       <c r="C11" s="33"/>
@@ -16111,7 +16817,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="28"/>
       <c r="C12" s="33"/>
@@ -16122,7 +16828,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="28"/>
       <c r="C13" s="33"/>
@@ -16133,7 +16839,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="28"/>
       <c r="C14" s="33"/>
@@ -16144,7 +16850,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="28"/>
       <c r="C15" s="33"/>
@@ -16155,7 +16861,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="28"/>
       <c r="C16" s="33"/>
@@ -16165,6 +16871,12 @@
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="5"/>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -16176,6 +16888,12 @@
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
       <c r="G17" s="8"/>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -19277,4 +19995,3512 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2B6AC6-E201-4C3F-9EA4-51B65F21C2B2}">
+  <dimension ref="A4:N263"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="K266" sqref="K266"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="5"/>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="8"/>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="5"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="5"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="5"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="5"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="5"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="5"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="5"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="5"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="5"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="5"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="5"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="5"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="5"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="5"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="5"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="5"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="5"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="5"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="5"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="5"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="5"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="5"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="5"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="5"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="5"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="5"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="5"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="5"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="5"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="5"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="5"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="5"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="5"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="5"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="5"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="5"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="5"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="5"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="5"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="5"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="5"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="5"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="5"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="8"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="3"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="5"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="5"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="5"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="5"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="5"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="5"/>
+      <c r="H169" t="s">
+        <v>99</v>
+      </c>
+      <c r="I169" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="5"/>
+      <c r="I170" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="4"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="5"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="5"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="4"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="5"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="5"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="4"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="5"/>
+      <c r="I191" t="s">
+        <v>99</v>
+      </c>
+      <c r="J191" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="8"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="5"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="4"/>
+      <c r="C202" s="9"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C204" s="9"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C205" s="9"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C206" s="9"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="5"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="5"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="5"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210" s="4"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="5"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="5"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C213" s="9"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="5"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="5"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="5"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="5"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B217" s="4"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="5"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="5"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="4"/>
+      <c r="C219" s="9"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C220" s="9"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="5"/>
+      <c r="I220" t="s">
+        <v>99</v>
+      </c>
+      <c r="J220" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="5"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="8"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="3"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B227" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="5"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B228" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C228" s="9"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="5"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B229" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="5"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B230" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="5"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B231" s="4"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="5"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B232" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C232" s="9"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="5"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B233" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="5"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B234" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234" s="9"/>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="5"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B235" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235" s="9"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="5"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B236" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="5"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B237" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="5"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B238" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="5"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B239" s="4"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="5"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B240" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" s="9"/>
+      <c r="D240" s="9"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="5"/>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C241" s="9"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="5"/>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C242" s="9"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="5"/>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C243" s="9"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="5"/>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C244" s="9"/>
+      <c r="D244" s="9"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="5"/>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B245" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C245" s="9"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="5"/>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B246" s="4"/>
+      <c r="C246" s="9"/>
+      <c r="D246" s="9"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="5"/>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B247" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C247" s="9"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="5"/>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B248" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C248" s="9"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9"/>
+      <c r="G248" s="5"/>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B249" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="9"/>
+      <c r="G249" s="5"/>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B250" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="9"/>
+      <c r="G250" s="5"/>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B251" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C251" s="9"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="9"/>
+      <c r="G251" s="5"/>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B252" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C252" s="9"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="5"/>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B253" s="4"/>
+      <c r="C253" s="9"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="9"/>
+      <c r="G253" s="5"/>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B254" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="9"/>
+      <c r="G254" s="5"/>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B255" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C255" s="9"/>
+      <c r="D255" s="9"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="5"/>
+      <c r="H255" t="s">
+        <v>99</v>
+      </c>
+      <c r="I255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B256" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C256" s="9"/>
+      <c r="D256" s="9"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="9"/>
+      <c r="G256" s="5"/>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B257" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="9"/>
+      <c r="G257" s="5"/>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B258" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="5"/>
+    </row>
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B259" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="5"/>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B260" s="10"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="5"/>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B261" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="5"/>
+      <c r="H261" t="s">
+        <v>99</v>
+      </c>
+      <c r="I261" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B262" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C262" s="9"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="5"/>
+      <c r="H262" t="s">
+        <v>99</v>
+      </c>
+      <c r="I262" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B263" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.es6/2.Variable-TemplateString-Spread-Destructing.xlsx
+++ b/me/1.es6/2.Variable-TemplateString-Spread-Destructing.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\1.es6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F70D24-7117-4CDC-9DAA-33221C1FB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABCDFFC-7F9D-4291-9374-CB6068E3BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Let vs var" sheetId="1" r:id="rId1"/>
     <sheet name="Const" sheetId="2" r:id="rId2"/>
     <sheet name="Template String" sheetId="3" r:id="rId3"/>
     <sheet name="For" sheetId="4" r:id="rId4"/>
+    <sheet name="Spread" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="270">
   <si>
     <t>構成</t>
   </si>
@@ -1016,6 +1017,129 @@
       </rPr>
       <t>for...in</t>
     </r>
+  </si>
+  <si>
+    <t>Từ khóa spread nó là 1 toán tử</t>
+  </si>
+  <si>
+    <t>05-spread.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="mjs/05-spread.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\1.es6\mjs\05-spread.js</t>
+  </si>
+  <si>
+    <t>let courseWeb       = ["PHP", "Zend", "WordPres"];</t>
+  </si>
+  <si>
+    <t>let courseMobile    = ["Android", "IOS"];</t>
+  </si>
+  <si>
+    <t>// "HTML", "jQuery", "PHP", "Zend", "WordPres", "Window Phone", "Android", "IOS"</t>
+  </si>
+  <si>
+    <t>console.log(course);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let course = ["HTML", "jQuery", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">courseWeb, "Window Phone", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>courseMobile];</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Dùng toán tử spred nên lần lượt các phần tử PHP, Zend, WordPres, Android, IOS được thêm </t>
+  </si>
+  <si>
+    <t>vào như ý mình muốn</t>
+  </si>
+  <si>
+    <r>
+      <t>let course = ["HTML", "jQuery",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> courseWeb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, "Window Phone", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>courseMobile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>];</t>
+    </r>
+  </si>
+  <si>
+    <t>Trường hợp ko dùng toán tử spread</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1267,6 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4910,6 +5035,470 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4313A28-95B0-F8EC-5C93-C265CF8FDAAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2152650" y="3219450"/>
+          <a:ext cx="819150" cy="26193750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>171331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122A1ECE-3FEE-18D7-E203-C9E3A38F6A0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="30127575"/>
+          <a:ext cx="5324475" cy="1476256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D5B15B-B18F-DEA2-5A7C-6001ADE8B894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3181350" y="30870525"/>
+          <a:ext cx="5248275" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CF17D1-5BC2-733E-FC35-29B33286D53D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5324475" y="30880050"/>
+          <a:ext cx="5505450" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>40230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>110835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3D9ECB-11DA-E5AE-4EF4-D4431ED7379F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="32615730"/>
+          <a:ext cx="5172075" cy="1213605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE739C3-F297-5F3C-BD12-BE196E6375FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="31565850"/>
+          <a:ext cx="85725" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2DBB47-3CA9-6D42-45EE-FF8CE935A96E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4610100" y="31565850"/>
+          <a:ext cx="219075" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B3783F-B957-9DAE-4B3B-4EED98EB0796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3105150" y="33127950"/>
+          <a:ext cx="5286375" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87318A7-EBA5-7D7C-3DC0-193D528CA318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5124450" y="33232725"/>
+          <a:ext cx="4638675" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20001,8 +20590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2B6AC6-E201-4C3F-9EA4-51B65F21C2B2}">
   <dimension ref="A4:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="K266" sqref="K266"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23503,4 +24092,2682 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086B1892-891F-4C54-ABEF-43B56BA95F3B}">
+  <dimension ref="A2:N178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="K180" sqref="K180"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="5"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="5"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="5"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="5"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="5"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="5"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="5"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="5"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="5"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="5"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="5"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="5"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="5"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="5"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="5"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="5"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="5"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="5"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="5"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="5"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="5"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="5"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="5"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="5"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="5"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="5"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="5"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="5"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="5"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="5"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="5"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="5"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="5"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="5"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="5"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="5"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="5"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="5"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="5"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="5"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="5"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="5"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="5"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="5"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="8"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="9"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L159" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="3"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="5"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="5"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="8"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L171" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="3"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="4"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.es6/2.Variable-TemplateString-Spread-Destructing.xlsx
+++ b/me/1.es6/2.Variable-TemplateString-Spread-Destructing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\1.es6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABCDFFC-7F9D-4291-9374-CB6068E3BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B67B5B0-2D60-4DC7-AB46-44CBE1205A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Let vs var" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Template String" sheetId="3" r:id="rId3"/>
     <sheet name="For" sheetId="4" r:id="rId4"/>
     <sheet name="Spread" sheetId="5" r:id="rId5"/>
+    <sheet name="Destructuring" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="289">
   <si>
     <t>構成</t>
   </si>
@@ -1140,6 +1141,63 @@
   </si>
   <si>
     <t>Trường hợp ko dùng toán tử spread</t>
+  </si>
+  <si>
+    <t>        &lt;script src="mjs/06-destructuring.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\1.es6\mjs\06-destructuring.js</t>
+  </si>
+  <si>
+    <t>let arr = [133, "ES6", false];</t>
+  </si>
+  <si>
+    <t>let [id, name, free] = arr;</t>
+  </si>
+  <si>
+    <t>console.log(id + " - " + name + " - " + free);</t>
+  </si>
+  <si>
+    <t>06-destructuring.js</t>
+  </si>
+  <si>
+    <t>Lấy các giá trị của mảng hoặc đối tượng gán vào các biến</t>
+  </si>
+  <si>
+    <t>mảng  [id, name, free]</t>
+  </si>
+  <si>
+    <t>let objCourse = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id: 456, </t>
+  </si>
+  <si>
+    <t>    name: "ES6",</t>
+  </si>
+  <si>
+    <t>    free: false,</t>
+  </si>
+  <si>
+    <t>    createdBy: "admin123"</t>
+  </si>
+  <si>
+    <t>let {name, id, free, createdBy = "admin"} = objCourse;</t>
+  </si>
+  <si>
+    <t>console.log(id + " - " + name + " - " + free + " - " + createdBy);</t>
+  </si>
+  <si>
+    <t>    free: false</t>
+  </si>
+  <si>
+    <t>Khác với mảng thì đối với đối tượng chỉ cần tên đúng còn thứ tự ko quan trọng</t>
+  </si>
+  <si>
+    <t>thuộc tính createdBy ko tồn tại trong đối tượng objCourse thì lấy giá trị được truyền vào là admin</t>
+  </si>
+  <si>
+    <t>thuộc tính createdBy tồn tại trong đối tượng objCourse thì lấy giá trị đó</t>
   </si>
 </sst>
 </file>
@@ -5499,6 +5557,675 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F030CB0-F43F-3AE1-9E2C-A64A0177F67F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2466975" y="3371850"/>
+          <a:ext cx="438150" cy="26222325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485183</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>161714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B9FC5A-550C-0719-684E-A5CC2F162E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="30861000"/>
+          <a:ext cx="4733333" cy="1685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>80857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E73CB79-B640-C387-9461-BCBC8F95854E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1762125" y="31703857"/>
+          <a:ext cx="4962525" cy="366818"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424C841E-80D3-BBA5-0576-FC55C345FF2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="35185350"/>
+          <a:ext cx="523875" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E202C2F-CF28-6733-EE47-E612F1EEE6A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="35385375"/>
+          <a:ext cx="142875" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>506645</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>56964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE4863E-ABC8-8472-37A0-DCD8442085FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219824" y="33204149"/>
+          <a:ext cx="5259621" cy="1523815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA0867D-F106-B2DC-69A7-DDF5F9CB7BB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2724150" y="33956625"/>
+          <a:ext cx="5362575" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0ED7BB-CE8E-917E-F89A-1EAF76A97B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1371600" y="33947100"/>
+          <a:ext cx="6143625" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F18F29-F9F4-B84C-B550-B7FF876018E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1504950" y="33937575"/>
+          <a:ext cx="5610225" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4945EDB0-92B4-5D04-486F-F24DF23688BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1190625" y="33899475"/>
+          <a:ext cx="5429250" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285113</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>133179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A4F7B5-8311-3C87-9282-DE0385FB36C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="37052250"/>
+          <a:ext cx="5095238" cy="1371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC3DA35-A2BD-90BA-B9BC-A86D32F929B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2105025" y="38328600"/>
+          <a:ext cx="5305425" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E5D3C0-1006-A08A-0B56-4113E7353D4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7572375" y="33918525"/>
+          <a:ext cx="619125" cy="4162425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20591,7 +21318,7 @@
   <dimension ref="A4:N263"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H16" sqref="H16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24098,8 +24825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086B1892-891F-4C54-ABEF-43B56BA95F3B}">
   <dimension ref="A2:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="K180" sqref="K180"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24261,6 +24988,12 @@
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="5"/>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -24272,6 +25005,12 @@
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="8"/>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -26770,4 +27509,3038 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8F08F4-3CD8-47BA-B054-48F82E44F9BF}">
+  <dimension ref="A2:N212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="L215" sqref="L215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="5"/>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="8"/>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="5"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="5"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="5"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="5"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="5"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="5"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="5"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="5"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="5"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="5"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="5"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="5"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="5"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="5"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="5"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="5"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="5"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="5"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="5"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="5"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="5"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="5"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="5"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="5"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="5"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="5"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="5"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="5"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="5"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="5"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="5"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="5"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="5"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="5"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="5"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="5"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="5"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="5"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="5"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="5"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="5"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="5"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="5"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="5"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="5"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="8"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="9"/>
+      <c r="M159" s="9"/>
+      <c r="N159" s="9"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="9"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="3"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="5"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="5"/>
+      <c r="H169" t="s">
+        <v>99</v>
+      </c>
+      <c r="I169" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B170" s="4"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="5"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B171" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="4"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="5"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="5"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="4"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="5"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="10"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="5"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="5"/>
+      <c r="I190" t="s">
+        <v>99</v>
+      </c>
+      <c r="J190" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="8"/>
+      <c r="J191" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B196" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="5"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="5"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="4"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="5"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="4"/>
+      <c r="C202" s="9"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="33"/>
+      <c r="G204" s="33"/>
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C205" s="33"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="33"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="33"/>
+      <c r="G206" s="33"/>
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C207" s="33"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="33"/>
+      <c r="F207" s="33"/>
+      <c r="G207" s="33"/>
+      <c r="H207" s="5"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="33"/>
+      <c r="G208" s="33"/>
+      <c r="H208" s="5"/>
+      <c r="I208" t="s">
+        <v>99</v>
+      </c>
+      <c r="J208" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C209" s="33"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33"/>
+      <c r="F209" s="33"/>
+      <c r="G209" s="33"/>
+      <c r="H209" s="5"/>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="28"/>
+      <c r="C210" s="33"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="33"/>
+      <c r="F210" s="33"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="5"/>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C211" s="33"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="33"/>
+      <c r="F211" s="33"/>
+      <c r="G211" s="33"/>
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C212" s="31"/>
+      <c r="D212" s="31"/>
+      <c r="E212" s="31"/>
+      <c r="F212" s="31"/>
+      <c r="G212" s="31"/>
+      <c r="H212" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>